--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -520,6 +520,9 @@
       <c r="C11" t="str">
         <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -581,7 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155550</v>
+        <v>01510101520155555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,9 +524,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155555</v>
+        <v>01510101520155555101096110513100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,10 +606,176 @@
       <c r="C21" t="str">
         <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>4</v>
+      </c>
+      <c r="C24" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F27" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>333_狼尾草_wolf tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>785_粗掉米 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>622_时尚太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +833,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155555101096110513100</v>
+        <v>01510101520155555101096110513108112020552110151515551030102010560</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,10 +772,96 @@
       <c r="A41" t="str">
         <v>5</v>
       </c>
+      <c r="C41" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>247_苏芬_Sofine_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>6</v>
+      </c>
+      <c r="C47" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -833,7 +919,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155555101096110513108112020552110151515551030102010560</v>
+        <v>0151010152015555510109611051310811202055211015151555103010201056109551071010050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -858,6 +858,9 @@
       <c r="C51" t="str">
         <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -919,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151010152015555510109611051310811202055211015151555103010201056109551071010050</v>
+        <v>01510101520155555101096110513108112020552110151515551030102010561095510710100510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,9 +862,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>7</v>
+      </c>
+      <c r="C59" t="str">
+        <v>788_直葱_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -922,7 +1002,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155555101096110513108112020552110151515551030102010561095510710100510</v>
+        <v>015101015201555551010961105131081120205521101515155510301020105610955107101005101544105101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -942,9 +942,89 @@
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8</v>
+      </c>
+      <c r="C68" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>787_菟葵粉铃铛_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1002,7 +1082,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015101015201555551010961105131081120205521101515155510301020105610955107101005101544105101010100</v>
+        <v>0151010152015555510109611051310811202055211015151555103010201056109551071010051015441051010101001010101010101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -1021,6 +1021,9 @@
       <c r="C71" t="str">
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1082,7 +1085,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151010152015555510109611051310811202055211015151555103010201056109551071010051015441051010101001010101010101010100</v>
+        <v>01510101520155555101096110513108112020552110151515551030102010561095510710100510154410510101010010101010101010101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,9 +1025,73 @@
         <v>10</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>9</v>
+      </c>
+      <c r="C76" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L79"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1085,7 +1149,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155555101096110513108112020552110151515551030102010561095510710100510154410510101010010101010101010101010</v>
+        <v>01510101520155555101096110513108112020552110151515551030102010561095510710100510154410510101010010101010101010101010105102810100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-11.xlsx
@@ -1088,6 +1088,9 @@
       <c r="C79" t="str">
         <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
       </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1149,7 +1152,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510101520155555101096110513108112020552110151515551030102010561095510710100510154410510101010010101010101010101010105102810100</v>
+        <v>015101015201555551010961105131081120205521101515155510301020105610955107101005101544105101010100101010101010101010101051028101010</v>
       </c>
     </row>
   </sheetData>
